--- a/excel_python/binary_excel.xlsx
+++ b/excel_python/binary_excel.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C2:C2"/>
+  <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,6 +422,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
+      <c r="B2" t="n">
+        <v>16</v>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>10000</t>

--- a/excel_python/binary_excel.xlsx
+++ b/excel_python/binary_excel.xlsx
@@ -423,11 +423,11 @@
   <sheetData>
     <row r="2">
       <c r="B2" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>11110</t>
         </is>
       </c>
     </row>

--- a/excel_python/binary_excel.xlsx
+++ b/excel_python/binary_excel.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:C2"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,11 +423,51 @@
   <sheetData>
     <row r="2">
       <c r="B2" t="n">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11110</t>
+          <t>1011001</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>706</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1011000010</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>98</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1100010</t>
         </is>
       </c>
     </row>

--- a/excel_python/binary_excel.xlsx
+++ b/excel_python/binary_excel.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,51 +423,76 @@
   <sheetData>
     <row r="2">
       <c r="B2" t="n">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1011001</t>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0xc</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>11000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0x18</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
-        <v>9</v>
+        <v>908</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1110001100</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0x38c</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>706</v>
+        <v>77</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1011000010</t>
+          <t>1001101</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0x4d</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="n">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1100010</t>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x6</t>
         </is>
       </c>
     </row>

--- a/excel_python/binary_excel.xlsx
+++ b/excel_python/binary_excel.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:D6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,78 +421,110 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>整数</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2進数</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>16進数</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
-      <c r="B2" t="n">
-        <v>12</v>
+      <c r="A2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10111</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1100</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0xc</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="n">
-        <v>24</v>
+      <c r="A3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11000</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0x18</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="n">
-        <v>908</v>
+      <c r="A4" t="n">
+        <v>290</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100100010</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1110001100</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0x38c</t>
+          <t>122</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="n">
-        <v>77</v>
+      <c r="A5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1001101</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0x4d</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="n">
-        <v>6</v>
+      <c r="A6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10110</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0x6</t>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>101101</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2d</t>
         </is>
       </c>
     </row>
